--- a/data/Codigos Ocup USA.xlsx
+++ b/data/Codigos Ocup USA.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="136" windowWidth="17633" windowHeight="6263"/>
+    <workbookView xWindow="435" yWindow="136" windowWidth="17633" windowHeight="6263" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="OCc 2011" sheetId="1" r:id="rId1"/>
+    <sheet name="OCC 2011" sheetId="1" r:id="rId1"/>
+    <sheet name="IND" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="803">
   <si>
     <t>N/A (not applicable)</t>
   </si>
@@ -1634,6 +1635,795 @@
   </si>
   <si>
     <t>Armed forces</t>
+  </si>
+  <si>
+    <t>OCC</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Crop production</t>
+  </si>
+  <si>
+    <t>Animal production</t>
+  </si>
+  <si>
+    <t>Forestry except logging</t>
+  </si>
+  <si>
+    <t>Logging</t>
+  </si>
+  <si>
+    <t>Fishing, hunting, and trapping</t>
+  </si>
+  <si>
+    <t>Support activities for agriculture and forestry</t>
+  </si>
+  <si>
+    <t>Oil and gas extraction</t>
+  </si>
+  <si>
+    <t>Coal mining</t>
+  </si>
+  <si>
+    <t>Metal ore mining</t>
+  </si>
+  <si>
+    <t>Nonmetallic mineral mining and quarrying and not specified type of mining</t>
+  </si>
+  <si>
+    <t>Support activities for mining</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Animal food, grain, and oilseed milling</t>
+  </si>
+  <si>
+    <t>Sugar and confectionery products</t>
+  </si>
+  <si>
+    <t>Fruit and vegetable preserving and specialty food manufacturing</t>
+  </si>
+  <si>
+    <t>Dairy product manufacturing</t>
+  </si>
+  <si>
+    <t>Animal slaughtering and processing</t>
+  </si>
+  <si>
+    <t>Retail bakeries</t>
+  </si>
+  <si>
+    <t>Bakeries, except retail</t>
+  </si>
+  <si>
+    <t>Seafood and other miscellaneous foods, n.e.c.</t>
+  </si>
+  <si>
+    <t>Not specified food industries</t>
+  </si>
+  <si>
+    <t>Beverage manufacturing</t>
+  </si>
+  <si>
+    <t>Tobacco manufacturing</t>
+  </si>
+  <si>
+    <t>Fiber, yarn, and thread mills</t>
+  </si>
+  <si>
+    <t>Fabric mills, except knitting</t>
+  </si>
+  <si>
+    <t>Textile and fabric finishing and coating mills</t>
+  </si>
+  <si>
+    <t>Carpet and rug mills</t>
+  </si>
+  <si>
+    <t>Textile product mills, except carpet and rug</t>
+  </si>
+  <si>
+    <t>Knitting mills, and apparel knitting mills</t>
+  </si>
+  <si>
+    <t>Cut and sew apparel manufacturing</t>
+  </si>
+  <si>
+    <t>Apparel accessories and other apparel manufacturing</t>
+  </si>
+  <si>
+    <t>Footwear manufacturing</t>
+  </si>
+  <si>
+    <t>Leather tanning and finishing and other allied products manufacturing</t>
+  </si>
+  <si>
+    <t>Sawmills and wood preservation</t>
+  </si>
+  <si>
+    <t>Veneer, plywood, and engineered wood products</t>
+  </si>
+  <si>
+    <t>Prefabricated wood buildings and mobile homes</t>
+  </si>
+  <si>
+    <t>Miscellaneous wood products</t>
+  </si>
+  <si>
+    <t>Pulp, paper, and paperboard mills</t>
+  </si>
+  <si>
+    <t>Paperboard containers and boxes</t>
+  </si>
+  <si>
+    <t>Miscellaneous paper and pulp products</t>
+  </si>
+  <si>
+    <t>Printing and related support activities</t>
+  </si>
+  <si>
+    <t>Petroleum refining</t>
+  </si>
+  <si>
+    <t>Miscellaneous petroleum and coal products</t>
+  </si>
+  <si>
+    <t>Resin, synthetic rubber and fibers, and filaments manufacturing</t>
+  </si>
+  <si>
+    <t>Agricultural chemical manufacturing</t>
+  </si>
+  <si>
+    <t>Pharmaceutical and medicine manufacturing</t>
+  </si>
+  <si>
+    <t>Paint, coating, and adhesives manufacturing</t>
+  </si>
+  <si>
+    <t>Soap, cleaning compound, and cosmetic manufacturing</t>
+  </si>
+  <si>
+    <t>Industrial and miscellaneous chemicals</t>
+  </si>
+  <si>
+    <t>Plastics product manufacturing</t>
+  </si>
+  <si>
+    <t>Tire manufacturing</t>
+  </si>
+  <si>
+    <t>Rubber product, except tire, manufacturing</t>
+  </si>
+  <si>
+    <t>Pottery, ceramics, and plumbing fixture manufacturing</t>
+  </si>
+  <si>
+    <t>Structural clay product manufacturing</t>
+  </si>
+  <si>
+    <t>Glass and glass product manufacturing</t>
+  </si>
+  <si>
+    <t>Cement, concrete, lime, and gypsum product manufacturing</t>
+  </si>
+  <si>
+    <t>Miscellaneous nonmetallic mineral product manufacturing</t>
+  </si>
+  <si>
+    <t>Iron and steel mills and steel product manufacturing</t>
+  </si>
+  <si>
+    <t>Aluminum production and processing</t>
+  </si>
+  <si>
+    <t>Nonferrous metal (except aluminum) production and processing</t>
+  </si>
+  <si>
+    <t>Foundries</t>
+  </si>
+  <si>
+    <t>Metal forgings and stampings</t>
+  </si>
+  <si>
+    <t>Cutlery and hand tool manufacturing</t>
+  </si>
+  <si>
+    <t>Structural metals, and boiler, tank, and shipping container manufacturing</t>
+  </si>
+  <si>
+    <t>Machine shops; turned product; screw, nut, and bolt manufacturing</t>
+  </si>
+  <si>
+    <t>Coating, engraving, heat treating and allied activities</t>
+  </si>
+  <si>
+    <t>Ordnance</t>
+  </si>
+  <si>
+    <t>Miscellaneous fabricated metal products manufacturing</t>
+  </si>
+  <si>
+    <t>Not specified metal industries</t>
+  </si>
+  <si>
+    <t>Agricultural implement manufacturing</t>
+  </si>
+  <si>
+    <t>Construction, and mining and oil and gas field machinery manufacturing</t>
+  </si>
+  <si>
+    <t>Commercial and service industry machinery manufacturing</t>
+  </si>
+  <si>
+    <t>Metalworking machinery manufacturing</t>
+  </si>
+  <si>
+    <t>Engines, turbines, and power transmission equipment manufacturing</t>
+  </si>
+  <si>
+    <t>Machinery manufacturing, n.e.c.</t>
+  </si>
+  <si>
+    <t>Computer and peripheral equipment manufacturing</t>
+  </si>
+  <si>
+    <t>Communications, and audio and video equipment manufacturing</t>
+  </si>
+  <si>
+    <t>Navigational, measuring, electromedical, and control instruments manufacturing</t>
+  </si>
+  <si>
+    <t>Electronic component and product manufacturing, n.e.c.</t>
+  </si>
+  <si>
+    <t>Household appliance manufacturing</t>
+  </si>
+  <si>
+    <t>Electrical lighting and electrical equipment manufacturing, and other electrical component manufacturing, n.e.c.</t>
+  </si>
+  <si>
+    <t>Motor vehicles and motor vehicle equipment manufacturing</t>
+  </si>
+  <si>
+    <t>Aircraft and parts manufacturing</t>
+  </si>
+  <si>
+    <t>Aerospace product and parts manufacturing</t>
+  </si>
+  <si>
+    <t>Railroad rolling stock manufacturing</t>
+  </si>
+  <si>
+    <t>Ship and boat building</t>
+  </si>
+  <si>
+    <t>Other transportation equipment manufacturing</t>
+  </si>
+  <si>
+    <t>Furniture and related product manufacturing</t>
+  </si>
+  <si>
+    <t>Medical equipment and supplies manufacturing</t>
+  </si>
+  <si>
+    <t>Sporting and athletic goods, and doll, toy and game manufacturing</t>
+  </si>
+  <si>
+    <t>Miscellaneous manufacturing, n.e.c.</t>
+  </si>
+  <si>
+    <t>Not specified manufacturing industries</t>
+  </si>
+  <si>
+    <t>Motor vehicles, parts and supplies, merchant wholesalers</t>
+  </si>
+  <si>
+    <t>Furniture and home furnishing, merchant wholesalers</t>
+  </si>
+  <si>
+    <t>Lumber and other construction materials, merchant wholesalers</t>
+  </si>
+  <si>
+    <t>Professional and commercial equipment and supplies, merchant wholesalers</t>
+  </si>
+  <si>
+    <t>Metals and minerals, except petroleum, merchant wholesalers</t>
+  </si>
+  <si>
+    <t>Electrical and electronic goods, merchant wholesalers</t>
+  </si>
+  <si>
+    <t>Hardware, plumbing and heating equipment, and supplies, merchant wholesalers</t>
+  </si>
+  <si>
+    <t>Machinery, equipment, and supplies, merchant wholesalers</t>
+  </si>
+  <si>
+    <t>Recyclable material, merchant wholesalers</t>
+  </si>
+  <si>
+    <t>Miscellaneous durable goods, merchant wholesalers</t>
+  </si>
+  <si>
+    <t>Paper and paper products, merchant wholesalers</t>
+  </si>
+  <si>
+    <t>Drugs, sundries, and chemical and allied products, merchant wholesalers</t>
+  </si>
+  <si>
+    <t>Apparel, fabrics, and notions, merchant wholesalers</t>
+  </si>
+  <si>
+    <t>Groceries and related products, merchant wholesalers</t>
+  </si>
+  <si>
+    <t>Farm product raw materials, merchant wholesalers</t>
+  </si>
+  <si>
+    <t>Petroleum and petroleum products, merchant wholesalers</t>
+  </si>
+  <si>
+    <t>Alcoholic beverages, merchant wholesalers</t>
+  </si>
+  <si>
+    <t>Farm supplies, merchant wholesalers</t>
+  </si>
+  <si>
+    <t>Miscellaneous nondurable goods, merchant wholesalers</t>
+  </si>
+  <si>
+    <t>Wholesale electronics markets, agents and brokers</t>
+  </si>
+  <si>
+    <t>Not specified wholesale trade</t>
+  </si>
+  <si>
+    <t>Automobile dealers</t>
+  </si>
+  <si>
+    <t>Other motor vehicle dealers</t>
+  </si>
+  <si>
+    <t>Auto parts, accessories, and tire stores</t>
+  </si>
+  <si>
+    <t>Furniture and home furnishings stores</t>
+  </si>
+  <si>
+    <t>Household appliance stores</t>
+  </si>
+  <si>
+    <t>Radio, TV, and computer stores</t>
+  </si>
+  <si>
+    <t>Building material and supplies dealers</t>
+  </si>
+  <si>
+    <t>Hardware stores</t>
+  </si>
+  <si>
+    <t>Lawn and garden equipment and supplies stores</t>
+  </si>
+  <si>
+    <t>Grocery stores</t>
+  </si>
+  <si>
+    <t>Specialty food stores</t>
+  </si>
+  <si>
+    <t>Beer, wine, and liquor stores</t>
+  </si>
+  <si>
+    <t>Pharmacies and drug stores</t>
+  </si>
+  <si>
+    <t>Health and personal care, except drug, stores</t>
+  </si>
+  <si>
+    <t>Gasoline stations</t>
+  </si>
+  <si>
+    <t>Clothing stores</t>
+  </si>
+  <si>
+    <t>Shoe stores</t>
+  </si>
+  <si>
+    <t>Jewelry, luggage, and leather goods stores</t>
+  </si>
+  <si>
+    <t>Sporting goods, camera, and hobby and toy stores</t>
+  </si>
+  <si>
+    <t>Sewing, needlework and piece goods stores</t>
+  </si>
+  <si>
+    <t>Music stores</t>
+  </si>
+  <si>
+    <t>Book stores and news dealers</t>
+  </si>
+  <si>
+    <t>Department stores and discount stores</t>
+  </si>
+  <si>
+    <t>Miscellaneous general merchandise stores</t>
+  </si>
+  <si>
+    <t>Retail florists</t>
+  </si>
+  <si>
+    <t>Office supplies and stationery stores</t>
+  </si>
+  <si>
+    <t>Used merchandise stores</t>
+  </si>
+  <si>
+    <t>Gift, novelty, and souvenir shops</t>
+  </si>
+  <si>
+    <t>Miscellaneous retail stores</t>
+  </si>
+  <si>
+    <t>Electronic shopping</t>
+  </si>
+  <si>
+    <t>Electronic auctions</t>
+  </si>
+  <si>
+    <t>Mail order houses</t>
+  </si>
+  <si>
+    <t>Vending machine operators</t>
+  </si>
+  <si>
+    <t>Fuel dealers</t>
+  </si>
+  <si>
+    <t>Other direct selling establishments</t>
+  </si>
+  <si>
+    <t>Not specified retail trade</t>
+  </si>
+  <si>
+    <t>Air transportation</t>
+  </si>
+  <si>
+    <t>Rail transportation</t>
+  </si>
+  <si>
+    <t>Water transportation</t>
+  </si>
+  <si>
+    <t>Truck transportation</t>
+  </si>
+  <si>
+    <t>Bus service and urban transit</t>
+  </si>
+  <si>
+    <t>Taxi and limousine service</t>
+  </si>
+  <si>
+    <t>Pipeline transportation</t>
+  </si>
+  <si>
+    <t>Scenic and sightseeing transportation</t>
+  </si>
+  <si>
+    <t>Services incidental to transportation</t>
+  </si>
+  <si>
+    <t>Postal Service</t>
+  </si>
+  <si>
+    <t>Warehousing and storage</t>
+  </si>
+  <si>
+    <t>Electric power generation, transmission and distribution</t>
+  </si>
+  <si>
+    <t>Natural gas distribution</t>
+  </si>
+  <si>
+    <t>Electric and gas, and other combinations</t>
+  </si>
+  <si>
+    <t>Water, steam, air conditioning, and irrigation systems</t>
+  </si>
+  <si>
+    <t>Sewage treatment facilities</t>
+  </si>
+  <si>
+    <t>Not specified utilities</t>
+  </si>
+  <si>
+    <t>Newspaper publishers</t>
+  </si>
+  <si>
+    <t>Periodical, book, and directory publishers</t>
+  </si>
+  <si>
+    <t>Software publishers</t>
+  </si>
+  <si>
+    <t>Motion pictures and video industries</t>
+  </si>
+  <si>
+    <t>Sound recording industries</t>
+  </si>
+  <si>
+    <t>Radio and television broadcasting and cable subscription programming</t>
+  </si>
+  <si>
+    <t>Internet publishing and broadcasting and web search portals</t>
+  </si>
+  <si>
+    <t>Wired telecommunications carriers</t>
+  </si>
+  <si>
+    <t>Other telecommunication services</t>
+  </si>
+  <si>
+    <t>Data processing, hosting, and related services</t>
+  </si>
+  <si>
+    <t>Libraries and archives</t>
+  </si>
+  <si>
+    <t>Other information services</t>
+  </si>
+  <si>
+    <t>Banking and related activities</t>
+  </si>
+  <si>
+    <t>Savings institutions, including credit unions</t>
+  </si>
+  <si>
+    <t>Non-depository credit and related activities</t>
+  </si>
+  <si>
+    <t>Securities, commodities, funds, trusts, and other financial investments</t>
+  </si>
+  <si>
+    <t>Insurance carriers and related activities</t>
+  </si>
+  <si>
+    <t>Real estate</t>
+  </si>
+  <si>
+    <t>Automotive equipment rental and leasing</t>
+  </si>
+  <si>
+    <t>Video tape and disk rental</t>
+  </si>
+  <si>
+    <t>Other consumer goods rental</t>
+  </si>
+  <si>
+    <t>Commercial, industrial, and other intangible assets rental and leasing</t>
+  </si>
+  <si>
+    <t>Legal services</t>
+  </si>
+  <si>
+    <t>Accounting, tax preparation, bookkeeping and payroll services</t>
+  </si>
+  <si>
+    <t>Architectural, engineering, and related services</t>
+  </si>
+  <si>
+    <t>Specialized design services</t>
+  </si>
+  <si>
+    <t>Computer systems design and related services</t>
+  </si>
+  <si>
+    <t>Management, scientific and technical consulting services</t>
+  </si>
+  <si>
+    <t>Scientific research and development services</t>
+  </si>
+  <si>
+    <t>Advertising and related services</t>
+  </si>
+  <si>
+    <t>Veterinary services</t>
+  </si>
+  <si>
+    <t>Other professional, scientific and technical services</t>
+  </si>
+  <si>
+    <t>Management of companies and enterprises</t>
+  </si>
+  <si>
+    <t>Employment services</t>
+  </si>
+  <si>
+    <t>Business support services</t>
+  </si>
+  <si>
+    <t>Travel arrangements and reservation services</t>
+  </si>
+  <si>
+    <t>Investigation and security services</t>
+  </si>
+  <si>
+    <t>Services to buildings and dwellings</t>
+  </si>
+  <si>
+    <t>Landscaping services</t>
+  </si>
+  <si>
+    <t>Other administrative and other support services</t>
+  </si>
+  <si>
+    <t>Waste management and remediation services</t>
+  </si>
+  <si>
+    <t>Elementary and secondary schools</t>
+  </si>
+  <si>
+    <t>Colleges and universities, including junior colleges</t>
+  </si>
+  <si>
+    <t>Business, technical, and trade schools and training</t>
+  </si>
+  <si>
+    <t>Other schools and instruction, and educational support services</t>
+  </si>
+  <si>
+    <t>Offices of physicians</t>
+  </si>
+  <si>
+    <t>Offices of dentists</t>
+  </si>
+  <si>
+    <t>Office of chiropractors</t>
+  </si>
+  <si>
+    <t>Offices of optometrists</t>
+  </si>
+  <si>
+    <t>Offices of other health practitioners</t>
+  </si>
+  <si>
+    <t>Outpatient care centers</t>
+  </si>
+  <si>
+    <t>Home health care services</t>
+  </si>
+  <si>
+    <t>Other health care services</t>
+  </si>
+  <si>
+    <t>Hospitals</t>
+  </si>
+  <si>
+    <t>Nursing care facilities</t>
+  </si>
+  <si>
+    <t>Residential care facilities, without nursing</t>
+  </si>
+  <si>
+    <t>Individual and family services</t>
+  </si>
+  <si>
+    <t>Community food and housing, and emergency services</t>
+  </si>
+  <si>
+    <t>Vocational rehabilitation services</t>
+  </si>
+  <si>
+    <t>Child day care services</t>
+  </si>
+  <si>
+    <t>Independent artists, performing arts, spectator sports, and related industries</t>
+  </si>
+  <si>
+    <t>Museums, art galleries, historical sites, and similar institutions</t>
+  </si>
+  <si>
+    <t>Bowling centers</t>
+  </si>
+  <si>
+    <t>Other amusement, gambling, and recreation industries</t>
+  </si>
+  <si>
+    <t>Traveler accommodation</t>
+  </si>
+  <si>
+    <t>Recreational vehicle parks and camps, and rooming and boarding houses</t>
+  </si>
+  <si>
+    <t>Restaurants and other food services</t>
+  </si>
+  <si>
+    <t>Drinking places, alcoholic beverages</t>
+  </si>
+  <si>
+    <t>Automotive repair and maintenance</t>
+  </si>
+  <si>
+    <t>Car washes</t>
+  </si>
+  <si>
+    <t>Electronic and precision equipment repair and maintenance</t>
+  </si>
+  <si>
+    <t>Commercial and industrial machinery and equipment repair and maintenance</t>
+  </si>
+  <si>
+    <t>Personal and household goods repair and maintenance and footwear and leather goods repair</t>
+  </si>
+  <si>
+    <t>Barber shops</t>
+  </si>
+  <si>
+    <t>Beauty salons</t>
+  </si>
+  <si>
+    <t>Nail salons and other personal care services</t>
+  </si>
+  <si>
+    <t>Dry cleaning and laundry services</t>
+  </si>
+  <si>
+    <t>Funeral homes, and cemeteries and crematories</t>
+  </si>
+  <si>
+    <t>Other personal services</t>
+  </si>
+  <si>
+    <t>Religious organizations</t>
+  </si>
+  <si>
+    <t>Civic, social, advocacy organizations, and grantmaking and giving services</t>
+  </si>
+  <si>
+    <t>Labor unions</t>
+  </si>
+  <si>
+    <t>Business, professional, political, and similar organizations</t>
+  </si>
+  <si>
+    <t>Private households</t>
+  </si>
+  <si>
+    <t>Executive offices and legislative bodies</t>
+  </si>
+  <si>
+    <t>Public finance activities</t>
+  </si>
+  <si>
+    <t>Other general government and support</t>
+  </si>
+  <si>
+    <t>Justice, public order, and safety activities</t>
+  </si>
+  <si>
+    <t>Administration of human resource programs</t>
+  </si>
+  <si>
+    <t>Administration of environmental quality and housing programs</t>
+  </si>
+  <si>
+    <t>Administration of economic programs and space research</t>
+  </si>
+  <si>
+    <t>National security and international affairs</t>
+  </si>
+  <si>
+    <t>Armed Forces</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>IND_Desc</t>
   </si>
 </sst>
 </file>
@@ -1706,8 +2496,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma 2" xfId="1"/>
@@ -2019,4564 +2812,6683 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B569"/>
+  <dimension ref="A1:B570"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A549" workbookViewId="0">
-      <selection activeCell="A569" sqref="A569"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>540</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>800</v>
+        <v>740</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>900</v>
+        <v>860</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="B69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1050</v>
+        <v>1030</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="B71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1105</v>
+        <v>1060</v>
       </c>
       <c r="B72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1200</v>
+        <v>1107</v>
       </c>
       <c r="B75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1210</v>
+        <v>1200</v>
       </c>
       <c r="B76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1220</v>
+        <v>1210</v>
       </c>
       <c r="B77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="B78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1240</v>
+        <v>1230</v>
       </c>
       <c r="B79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1300</v>
+        <v>1240</v>
       </c>
       <c r="B80" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1310</v>
+        <v>1300</v>
       </c>
       <c r="B81" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1320</v>
+        <v>1310</v>
       </c>
       <c r="B82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1330</v>
+        <v>1320</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1340</v>
+        <v>1330</v>
       </c>
       <c r="B84" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1350</v>
+        <v>1340</v>
       </c>
       <c r="B85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1360</v>
+        <v>1350</v>
       </c>
       <c r="B86" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1400</v>
+        <v>1360</v>
       </c>
       <c r="B87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1410</v>
+        <v>1400</v>
       </c>
       <c r="B88" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1420</v>
+        <v>1410</v>
       </c>
       <c r="B89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1430</v>
+        <v>1420</v>
       </c>
       <c r="B90" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1440</v>
+        <v>1430</v>
       </c>
       <c r="B91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1450</v>
+        <v>1440</v>
       </c>
       <c r="B92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1460</v>
+        <v>1450</v>
       </c>
       <c r="B93" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1500</v>
+        <v>1460</v>
       </c>
       <c r="B94" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1510</v>
+        <v>1500</v>
       </c>
       <c r="B95" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1520</v>
+        <v>1510</v>
       </c>
       <c r="B96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1530</v>
+        <v>1520</v>
       </c>
       <c r="B97" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1540</v>
+        <v>1530</v>
       </c>
       <c r="B98" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1550</v>
+        <v>1540</v>
       </c>
       <c r="B99" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1560</v>
+        <v>1550</v>
       </c>
       <c r="B100" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1600</v>
+        <v>1560</v>
       </c>
       <c r="B101" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1610</v>
+        <v>1600</v>
       </c>
       <c r="B102" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1640</v>
+        <v>1610</v>
       </c>
       <c r="B103" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1650</v>
+        <v>1640</v>
       </c>
       <c r="B104" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1660</v>
+        <v>1650</v>
       </c>
       <c r="B105" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1700</v>
+        <v>1660</v>
       </c>
       <c r="B106" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1710</v>
+        <v>1700</v>
       </c>
       <c r="B107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>1720</v>
+        <v>1710</v>
       </c>
       <c r="B108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>1730</v>
+        <v>1720</v>
       </c>
       <c r="B109" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>1740</v>
+        <v>1730</v>
       </c>
       <c r="B110" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>1750</v>
+        <v>1740</v>
       </c>
       <c r="B111" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>1760</v>
+        <v>1750</v>
       </c>
       <c r="B112" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>1800</v>
+        <v>1760</v>
       </c>
       <c r="B113" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>1815</v>
+        <v>1800</v>
       </c>
       <c r="B114" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1820</v>
+        <v>1815</v>
       </c>
       <c r="B115" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>1830</v>
+        <v>1820</v>
       </c>
       <c r="B116" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>1840</v>
+        <v>1830</v>
       </c>
       <c r="B117" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>1850</v>
+        <v>1840</v>
       </c>
       <c r="B118" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>1860</v>
+        <v>1850</v>
       </c>
       <c r="B119" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>1900</v>
+        <v>1860</v>
       </c>
       <c r="B120" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>1910</v>
+        <v>1900</v>
       </c>
       <c r="B121" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>1920</v>
+        <v>1910</v>
       </c>
       <c r="B122" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>1930</v>
+        <v>1920</v>
       </c>
       <c r="B123" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>1940</v>
+        <v>1930</v>
       </c>
       <c r="B124" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>1950</v>
+        <v>1940</v>
       </c>
       <c r="B125" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>1965</v>
+        <v>1950</v>
       </c>
       <c r="B126" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>2000</v>
+        <v>1965</v>
       </c>
       <c r="B127" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="B128" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="B129" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B130" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>2025</v>
+        <v>2016</v>
       </c>
       <c r="B131" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="B132" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="B133" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="B134" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>2060</v>
+        <v>2050</v>
       </c>
       <c r="B135" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>2100</v>
+        <v>2060</v>
       </c>
       <c r="B136" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>2105</v>
+        <v>2100</v>
       </c>
       <c r="B137" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>2110</v>
+        <v>2105</v>
       </c>
       <c r="B138" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>2145</v>
+        <v>2110</v>
       </c>
       <c r="B139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>2160</v>
+        <v>2145</v>
       </c>
       <c r="B140" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>2200</v>
+        <v>2160</v>
       </c>
       <c r="B141" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="B142" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="B143" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="B144" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>2330</v>
+        <v>2320</v>
       </c>
       <c r="B145" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>2340</v>
+        <v>2330</v>
       </c>
       <c r="B146" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>2400</v>
+        <v>2340</v>
       </c>
       <c r="B147" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>2430</v>
+        <v>2400</v>
       </c>
       <c r="B148" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>2440</v>
+        <v>2430</v>
       </c>
       <c r="B149" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>2540</v>
+        <v>2440</v>
       </c>
       <c r="B150" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>2550</v>
+        <v>2540</v>
       </c>
       <c r="B151" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>2600</v>
+        <v>2550</v>
       </c>
       <c r="B152" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>2630</v>
+        <v>2600</v>
       </c>
       <c r="B153" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>2700</v>
+        <v>2630</v>
       </c>
       <c r="B154" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>2710</v>
+        <v>2700</v>
       </c>
       <c r="B155" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>2720</v>
+        <v>2710</v>
       </c>
       <c r="B156" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>2730</v>
+        <v>2720</v>
       </c>
       <c r="B157" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>2740</v>
+        <v>2730</v>
       </c>
       <c r="B158" t="s">
-        <v>150</v>
+        <v>36</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>2750</v>
+        <v>2740</v>
       </c>
       <c r="B159" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>2760</v>
+        <v>2750</v>
       </c>
       <c r="B160" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>2800</v>
+        <v>2760</v>
       </c>
       <c r="B161" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>2810</v>
+        <v>2800</v>
       </c>
       <c r="B162" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>2825</v>
+        <v>2810</v>
       </c>
       <c r="B163" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>2830</v>
+        <v>2825</v>
       </c>
       <c r="B164" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>2840</v>
+        <v>2830</v>
       </c>
       <c r="B165" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>2850</v>
+        <v>2840</v>
       </c>
       <c r="B166" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>2860</v>
+        <v>2850</v>
       </c>
       <c r="B167" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>2900</v>
+        <v>2860</v>
       </c>
       <c r="B168" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>2910</v>
+        <v>2900</v>
       </c>
       <c r="B169" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>2920</v>
+        <v>2910</v>
       </c>
       <c r="B170" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>2960</v>
+        <v>2920</v>
       </c>
       <c r="B171" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>3000</v>
+        <v>2960</v>
       </c>
       <c r="B172" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>3010</v>
+        <v>3000</v>
       </c>
       <c r="B173" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>3020</v>
+        <v>3010</v>
       </c>
       <c r="B174" t="s">
-        <v>36</v>
+        <v>165</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>3030</v>
+        <v>3020</v>
       </c>
       <c r="B175" t="s">
-        <v>166</v>
+        <v>36</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>3040</v>
+        <v>3030</v>
       </c>
       <c r="B176" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>3050</v>
+        <v>3040</v>
       </c>
       <c r="B177" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>3060</v>
+        <v>3050</v>
       </c>
       <c r="B178" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>3110</v>
+        <v>3060</v>
       </c>
       <c r="B179" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>3120</v>
+        <v>3110</v>
       </c>
       <c r="B180" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>3140</v>
+        <v>3120</v>
       </c>
       <c r="B181" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="B182" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="B183" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>3200</v>
+        <v>3160</v>
       </c>
       <c r="B184" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>3210</v>
+        <v>3200</v>
       </c>
       <c r="B185" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>3220</v>
+        <v>3210</v>
       </c>
       <c r="B186" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>3230</v>
+        <v>3220</v>
       </c>
       <c r="B187" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>3235</v>
+        <v>3230</v>
       </c>
       <c r="B188" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>3245</v>
+        <v>3235</v>
       </c>
       <c r="B189" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>3250</v>
+        <v>3245</v>
       </c>
       <c r="B190" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>3255</v>
+        <v>3250</v>
       </c>
       <c r="B191" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="B192" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="B193" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="B194" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>3260</v>
+        <v>3258</v>
       </c>
       <c r="B195" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>3300</v>
+        <v>3260</v>
       </c>
       <c r="B196" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>3310</v>
+        <v>3300</v>
       </c>
       <c r="B197" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>3320</v>
+        <v>3310</v>
       </c>
       <c r="B198" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>3400</v>
+        <v>3320</v>
       </c>
       <c r="B199" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>3420</v>
+        <v>3400</v>
       </c>
       <c r="B200" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>3500</v>
+        <v>3420</v>
       </c>
       <c r="B201" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>3510</v>
+        <v>3500</v>
       </c>
       <c r="B202" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>3520</v>
+        <v>3510</v>
       </c>
       <c r="B203" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>3535</v>
+        <v>3520</v>
       </c>
       <c r="B204" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>3540</v>
+        <v>3535</v>
       </c>
       <c r="B205" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>3600</v>
+        <v>3540</v>
       </c>
       <c r="B206" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>3610</v>
+        <v>3600</v>
       </c>
       <c r="B207" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>3620</v>
+        <v>3610</v>
       </c>
       <c r="B208" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>3630</v>
+        <v>3620</v>
       </c>
       <c r="B209" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>3640</v>
+        <v>3630</v>
       </c>
       <c r="B210" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>3645</v>
+        <v>3640</v>
       </c>
       <c r="B211" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="B212" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>3647</v>
+        <v>3646</v>
       </c>
       <c r="B213" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="B214" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>3649</v>
+        <v>3648</v>
       </c>
       <c r="B215" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>3655</v>
+        <v>3649</v>
       </c>
       <c r="B216" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>3700</v>
+        <v>3655</v>
       </c>
       <c r="B217" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>3710</v>
+        <v>3700</v>
       </c>
       <c r="B218" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>3720</v>
+        <v>3710</v>
       </c>
       <c r="B219" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>3730</v>
+        <v>3720</v>
       </c>
       <c r="B220" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>3740</v>
+        <v>3730</v>
       </c>
       <c r="B221" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>3750</v>
+        <v>3740</v>
       </c>
       <c r="B222" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>3800</v>
+        <v>3750</v>
       </c>
       <c r="B223" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>3810</v>
+        <v>3800</v>
       </c>
       <c r="B224" t="s">
-        <v>36</v>
+        <v>214</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>3820</v>
+        <v>3810</v>
       </c>
       <c r="B225" t="s">
-        <v>215</v>
+        <v>36</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>3830</v>
+        <v>3820</v>
       </c>
       <c r="B226" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>3840</v>
+        <v>3830</v>
       </c>
       <c r="B227" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>3850</v>
+        <v>3840</v>
       </c>
       <c r="B228" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>3860</v>
+        <v>3850</v>
       </c>
       <c r="B229" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>3900</v>
+        <v>3860</v>
       </c>
       <c r="B230" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>3910</v>
+        <v>3900</v>
       </c>
       <c r="B231" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>3930</v>
+        <v>3910</v>
       </c>
       <c r="B232" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>3940</v>
+        <v>3930</v>
       </c>
       <c r="B233" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>3945</v>
+        <v>3940</v>
       </c>
       <c r="B234" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>3955</v>
+        <v>3945</v>
       </c>
       <c r="B235" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>4000</v>
+        <v>3955</v>
       </c>
       <c r="B236" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>4010</v>
+        <v>4000</v>
       </c>
       <c r="B237" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>4020</v>
+        <v>4010</v>
       </c>
       <c r="B238" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>4030</v>
+        <v>4020</v>
       </c>
       <c r="B239" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>4040</v>
+        <v>4030</v>
       </c>
       <c r="B240" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>4050</v>
+        <v>4040</v>
       </c>
       <c r="B241" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>4060</v>
+        <v>4050</v>
       </c>
       <c r="B242" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>4110</v>
+        <v>4060</v>
       </c>
       <c r="B243" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>4120</v>
+        <v>4110</v>
       </c>
       <c r="B244" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>4130</v>
+        <v>4120</v>
       </c>
       <c r="B245" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>4140</v>
+        <v>4130</v>
       </c>
       <c r="B246" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>4150</v>
+        <v>4140</v>
       </c>
       <c r="B247" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>4160</v>
+        <v>4150</v>
       </c>
       <c r="B248" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>4200</v>
+        <v>4160</v>
       </c>
       <c r="B249" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>4210</v>
+        <v>4200</v>
       </c>
       <c r="B250" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>4220</v>
+        <v>4210</v>
       </c>
       <c r="B251" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>4230</v>
+        <v>4220</v>
       </c>
       <c r="B252" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>4240</v>
+        <v>4230</v>
       </c>
       <c r="B253" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>4250</v>
+        <v>4240</v>
       </c>
       <c r="B254" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>4300</v>
+        <v>4250</v>
       </c>
       <c r="B255" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>4310</v>
+        <v>4300</v>
       </c>
       <c r="B256" t="s">
-        <v>36</v>
+        <v>245</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>4320</v>
+        <v>4310</v>
       </c>
       <c r="B257" t="s">
-        <v>246</v>
+        <v>36</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>4330</v>
+        <v>4320</v>
       </c>
       <c r="B258" t="s">
-        <v>36</v>
+        <v>246</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>4340</v>
+        <v>4330</v>
       </c>
       <c r="B259" t="s">
-        <v>247</v>
+        <v>36</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>4350</v>
+        <v>4340</v>
       </c>
       <c r="B260" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>4400</v>
+        <v>4350</v>
       </c>
       <c r="B261" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>4410</v>
+        <v>4400</v>
       </c>
       <c r="B262" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>4420</v>
+        <v>4410</v>
       </c>
       <c r="B263" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>4430</v>
+        <v>4420</v>
       </c>
       <c r="B264" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>4460</v>
+        <v>4430</v>
       </c>
       <c r="B265" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>4465</v>
+        <v>4460</v>
       </c>
       <c r="B266" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>4500</v>
+        <v>4465</v>
       </c>
       <c r="B267" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>4510</v>
+        <v>4500</v>
       </c>
       <c r="B268" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>4520</v>
+        <v>4510</v>
       </c>
       <c r="B269" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>4530</v>
+        <v>4520</v>
       </c>
       <c r="B270" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>4540</v>
+        <v>4530</v>
       </c>
       <c r="B271" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>4550</v>
+        <v>4540</v>
       </c>
       <c r="B272" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>4600</v>
+        <v>4550</v>
       </c>
       <c r="B273" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>4610</v>
+        <v>4600</v>
       </c>
       <c r="B274" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>4620</v>
+        <v>4610</v>
       </c>
       <c r="B275" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>4630</v>
+        <v>4620</v>
       </c>
       <c r="B276" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>4640</v>
+        <v>4630</v>
       </c>
       <c r="B277" t="s">
-        <v>264</v>
+        <v>36</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>4650</v>
+        <v>4640</v>
       </c>
       <c r="B278" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>4700</v>
+        <v>4650</v>
       </c>
       <c r="B279" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>4710</v>
+        <v>4700</v>
       </c>
       <c r="B280" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>4720</v>
+        <v>4710</v>
       </c>
       <c r="B281" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>4730</v>
+        <v>4720</v>
       </c>
       <c r="B282" t="s">
-        <v>36</v>
+        <v>268</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>4740</v>
+        <v>4730</v>
       </c>
       <c r="B283" t="s">
-        <v>269</v>
+        <v>36</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>4750</v>
+        <v>4740</v>
       </c>
       <c r="B284" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>4760</v>
+        <v>4750</v>
       </c>
       <c r="B285" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>4800</v>
+        <v>4760</v>
       </c>
       <c r="B286" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>4810</v>
+        <v>4800</v>
       </c>
       <c r="B287" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>4820</v>
+        <v>4810</v>
       </c>
       <c r="B288" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>4830</v>
+        <v>4820</v>
       </c>
       <c r="B289" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>4840</v>
+        <v>4830</v>
       </c>
       <c r="B290" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>4850</v>
+        <v>4840</v>
       </c>
       <c r="B291" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>4900</v>
+        <v>4850</v>
       </c>
       <c r="B292" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>4910</v>
+        <v>4900</v>
       </c>
       <c r="B293" t="s">
-        <v>36</v>
+        <v>278</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>4920</v>
+        <v>4910</v>
       </c>
       <c r="B294" t="s">
-        <v>279</v>
+        <v>36</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>4930</v>
+        <v>4920</v>
       </c>
       <c r="B295" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>4940</v>
+        <v>4930</v>
       </c>
       <c r="B296" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>4950</v>
+        <v>4940</v>
       </c>
       <c r="B297" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>4965</v>
+        <v>4950</v>
       </c>
       <c r="B298" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>5000</v>
+        <v>4965</v>
       </c>
       <c r="B299" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>5010</v>
+        <v>5000</v>
       </c>
       <c r="B300" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>5020</v>
+        <v>5010</v>
       </c>
       <c r="B301" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>5030</v>
+        <v>5020</v>
       </c>
       <c r="B302" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>5100</v>
+        <v>5030</v>
       </c>
       <c r="B303" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>5110</v>
+        <v>5100</v>
       </c>
       <c r="B304" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>5120</v>
+        <v>5110</v>
       </c>
       <c r="B305" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>5130</v>
+        <v>5120</v>
       </c>
       <c r="B306" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>5140</v>
+        <v>5130</v>
       </c>
       <c r="B307" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>5150</v>
+        <v>5140</v>
       </c>
       <c r="B308" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>5160</v>
+        <v>5150</v>
       </c>
       <c r="B309" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>5165</v>
+        <v>5160</v>
       </c>
       <c r="B310" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>5200</v>
+        <v>5165</v>
       </c>
       <c r="B311" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>5210</v>
+        <v>5200</v>
       </c>
       <c r="B312" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>5220</v>
+        <v>5210</v>
       </c>
       <c r="B313" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>5230</v>
+        <v>5220</v>
       </c>
       <c r="B314" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>5240</v>
+        <v>5230</v>
       </c>
       <c r="B315" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="B316" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="B317" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>5300</v>
+        <v>5260</v>
       </c>
       <c r="B318" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>5310</v>
+        <v>5300</v>
       </c>
       <c r="B319" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>5320</v>
+        <v>5310</v>
       </c>
       <c r="B320" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>5330</v>
+        <v>5320</v>
       </c>
       <c r="B321" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>5340</v>
+        <v>5330</v>
       </c>
       <c r="B322" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>5350</v>
+        <v>5340</v>
       </c>
       <c r="B323" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>5360</v>
+        <v>5350</v>
       </c>
       <c r="B324" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>5400</v>
+        <v>5360</v>
       </c>
       <c r="B325" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>5410</v>
+        <v>5400</v>
       </c>
       <c r="B326" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>5420</v>
+        <v>5410</v>
       </c>
       <c r="B327" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>5500</v>
+        <v>5420</v>
       </c>
       <c r="B328" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>5510</v>
+        <v>5500</v>
       </c>
       <c r="B329" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>5520</v>
+        <v>5510</v>
       </c>
       <c r="B330" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>5530</v>
+        <v>5520</v>
       </c>
       <c r="B331" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>5540</v>
+        <v>5530</v>
       </c>
       <c r="B332" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>5550</v>
+        <v>5540</v>
       </c>
       <c r="B333" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>5560</v>
+        <v>5550</v>
       </c>
       <c r="B334" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>5600</v>
+        <v>5560</v>
       </c>
       <c r="B335" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>5610</v>
+        <v>5600</v>
       </c>
       <c r="B336" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>5620</v>
+        <v>5610</v>
       </c>
       <c r="B337" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>5630</v>
+        <v>5620</v>
       </c>
       <c r="B338" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>5700</v>
+        <v>5630</v>
       </c>
       <c r="B339" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="B340" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>5810</v>
+        <v>5800</v>
       </c>
       <c r="B341" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>5820</v>
+        <v>5810</v>
       </c>
       <c r="B342" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>5830</v>
+        <v>5820</v>
       </c>
       <c r="B343" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>5840</v>
+        <v>5830</v>
       </c>
       <c r="B344" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>5850</v>
+        <v>5840</v>
       </c>
       <c r="B345" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>5860</v>
+        <v>5850</v>
       </c>
       <c r="B346" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>5900</v>
+        <v>5860</v>
       </c>
       <c r="B347" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>5910</v>
+        <v>5900</v>
       </c>
       <c r="B348" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>5920</v>
+        <v>5910</v>
       </c>
       <c r="B349" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>5940</v>
+        <v>5920</v>
       </c>
       <c r="B350" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>6005</v>
+        <v>5940</v>
       </c>
       <c r="B351" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>6010</v>
+        <v>6005</v>
       </c>
       <c r="B352" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>6020</v>
+        <v>6010</v>
       </c>
       <c r="B353" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>6030</v>
+        <v>6020</v>
       </c>
       <c r="B354" t="s">
-        <v>36</v>
+        <v>338</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>6040</v>
+        <v>6030</v>
       </c>
       <c r="B355" t="s">
-        <v>339</v>
+        <v>36</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>6050</v>
+        <v>6040</v>
       </c>
       <c r="B356" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>6100</v>
+        <v>6050</v>
       </c>
       <c r="B357" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>6110</v>
+        <v>6100</v>
       </c>
       <c r="B358" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>6120</v>
+        <v>6110</v>
       </c>
       <c r="B359" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>6130</v>
+        <v>6120</v>
       </c>
       <c r="B360" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>6200</v>
+        <v>6130</v>
       </c>
       <c r="B361" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>6210</v>
+        <v>6200</v>
       </c>
       <c r="B362" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>6220</v>
+        <v>6210</v>
       </c>
       <c r="B363" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>6230</v>
+        <v>6220</v>
       </c>
       <c r="B364" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>6240</v>
+        <v>6230</v>
       </c>
       <c r="B365" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>6250</v>
+        <v>6240</v>
       </c>
       <c r="B366" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>6260</v>
+        <v>6250</v>
       </c>
       <c r="B367" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>6300</v>
+        <v>6260</v>
       </c>
       <c r="B368" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>6310</v>
+        <v>6300</v>
       </c>
       <c r="B369" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>6320</v>
+        <v>6310</v>
       </c>
       <c r="B370" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>6330</v>
+        <v>6320</v>
       </c>
       <c r="B371" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>6340</v>
+        <v>6330</v>
       </c>
       <c r="B372" t="s">
-        <v>36</v>
+        <v>355</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>6355</v>
+        <v>6340</v>
       </c>
       <c r="B373" t="s">
-        <v>356</v>
+        <v>36</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>6360</v>
+        <v>6355</v>
       </c>
       <c r="B374" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>6400</v>
+        <v>6360</v>
       </c>
       <c r="B375" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>6410</v>
+        <v>6400</v>
       </c>
       <c r="B376" t="s">
-        <v>36</v>
+        <v>358</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>6420</v>
+        <v>6410</v>
       </c>
       <c r="B377" t="s">
-        <v>359</v>
+        <v>36</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>6430</v>
+        <v>6420</v>
       </c>
       <c r="B378" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>6440</v>
+        <v>6430</v>
       </c>
       <c r="B379" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>6450</v>
+        <v>6440</v>
       </c>
       <c r="B380" t="s">
-        <v>36</v>
+        <v>361</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>6460</v>
+        <v>6450</v>
       </c>
       <c r="B381" t="s">
-        <v>362</v>
+        <v>36</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>6500</v>
+        <v>6460</v>
       </c>
       <c r="B382" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>6515</v>
+        <v>6500</v>
       </c>
       <c r="B383" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>6520</v>
+        <v>6515</v>
       </c>
       <c r="B384" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>6530</v>
+        <v>6520</v>
       </c>
       <c r="B385" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>6540</v>
+        <v>6530</v>
       </c>
       <c r="B386" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>6600</v>
+        <v>6540</v>
       </c>
       <c r="B387" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>6660</v>
+        <v>6600</v>
       </c>
       <c r="B388" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>6700</v>
+        <v>6660</v>
       </c>
       <c r="B389" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>6710</v>
+        <v>6700</v>
       </c>
       <c r="B390" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>6720</v>
+        <v>6710</v>
       </c>
       <c r="B391" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>6730</v>
+        <v>6720</v>
       </c>
       <c r="B392" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>6740</v>
+        <v>6730</v>
       </c>
       <c r="B393" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>6750</v>
+        <v>6740</v>
       </c>
       <c r="B394" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>6765</v>
+        <v>6750</v>
       </c>
       <c r="B395" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>6800</v>
+        <v>6765</v>
       </c>
       <c r="B396" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>6810</v>
+        <v>6800</v>
       </c>
       <c r="B397" t="s">
-        <v>36</v>
+        <v>377</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>6820</v>
+        <v>6810</v>
       </c>
       <c r="B398" t="s">
-        <v>378</v>
+        <v>36</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>6830</v>
+        <v>6820</v>
       </c>
       <c r="B399" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>6840</v>
+        <v>6830</v>
       </c>
       <c r="B400" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>6910</v>
+        <v>6840</v>
       </c>
       <c r="B401" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>6920</v>
+        <v>6910</v>
       </c>
       <c r="B402" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>6930</v>
+        <v>6920</v>
       </c>
       <c r="B403" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>6940</v>
+        <v>6930</v>
       </c>
       <c r="B404" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>7000</v>
+        <v>6940</v>
       </c>
       <c r="B405" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>7010</v>
+        <v>7000</v>
       </c>
       <c r="B406" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>7020</v>
+        <v>7010</v>
       </c>
       <c r="B407" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>7030</v>
+        <v>7020</v>
       </c>
       <c r="B408" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>7040</v>
+        <v>7030</v>
       </c>
       <c r="B409" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>7050</v>
+        <v>7040</v>
       </c>
       <c r="B410" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>7100</v>
+        <v>7050</v>
       </c>
       <c r="B411" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>7110</v>
+        <v>7100</v>
       </c>
       <c r="B412" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>7120</v>
+        <v>7110</v>
       </c>
       <c r="B413" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>7130</v>
+        <v>7120</v>
       </c>
       <c r="B414" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>7140</v>
+        <v>7130</v>
       </c>
       <c r="B415" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>7150</v>
+        <v>7140</v>
       </c>
       <c r="B416" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>7160</v>
+        <v>7150</v>
       </c>
       <c r="B417" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>7200</v>
+        <v>7160</v>
       </c>
       <c r="B418" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>7210</v>
+        <v>7200</v>
       </c>
       <c r="B419" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>7220</v>
+        <v>7210</v>
       </c>
       <c r="B420" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>7230</v>
+        <v>7220</v>
       </c>
       <c r="B421" t="s">
-        <v>36</v>
+        <v>400</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>7240</v>
+        <v>7230</v>
       </c>
       <c r="B422" t="s">
-        <v>401</v>
+        <v>36</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>7250</v>
+        <v>7240</v>
       </c>
       <c r="B423" t="s">
-        <v>36</v>
+        <v>401</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>7260</v>
+        <v>7250</v>
       </c>
       <c r="B424" t="s">
-        <v>402</v>
+        <v>36</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>7300</v>
+        <v>7260</v>
       </c>
       <c r="B425" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>7315</v>
+        <v>7300</v>
       </c>
       <c r="B426" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>7320</v>
+        <v>7315</v>
       </c>
       <c r="B427" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>7330</v>
+        <v>7320</v>
       </c>
       <c r="B428" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>7340</v>
+        <v>7330</v>
       </c>
       <c r="B429" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>7350</v>
+        <v>7340</v>
       </c>
       <c r="B430" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>7360</v>
+        <v>7350</v>
       </c>
       <c r="B431" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>7410</v>
+        <v>7360</v>
       </c>
       <c r="B432" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>7420</v>
+        <v>7410</v>
       </c>
       <c r="B433" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>7430</v>
+        <v>7420</v>
       </c>
       <c r="B434" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>7440</v>
+        <v>7430</v>
       </c>
       <c r="B435" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>7510</v>
+        <v>7440</v>
       </c>
       <c r="B436" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>7520</v>
+        <v>7510</v>
       </c>
       <c r="B437" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>7530</v>
+        <v>7520</v>
       </c>
       <c r="B438" t="s">
-        <v>36</v>
+        <v>415</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>7540</v>
+        <v>7530</v>
       </c>
       <c r="B439" t="s">
-        <v>416</v>
+        <v>36</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>7550</v>
+        <v>7540</v>
       </c>
       <c r="B440" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>7560</v>
+        <v>7550</v>
       </c>
       <c r="B441" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>7600</v>
+        <v>7560</v>
       </c>
       <c r="B442" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>7610</v>
+        <v>7600</v>
       </c>
       <c r="B443" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>7630</v>
+        <v>7610</v>
       </c>
       <c r="B444" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>7700</v>
+        <v>7630</v>
       </c>
       <c r="B445" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>7710</v>
+        <v>7700</v>
       </c>
       <c r="B446" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>7720</v>
+        <v>7710</v>
       </c>
       <c r="B447" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>7730</v>
+        <v>7720</v>
       </c>
       <c r="B448" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>7740</v>
+        <v>7730</v>
       </c>
       <c r="B449" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>7750</v>
+        <v>7740</v>
       </c>
       <c r="B450" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>7800</v>
+        <v>7750</v>
       </c>
       <c r="B451" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>7810</v>
+        <v>7800</v>
       </c>
       <c r="B452" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>7820</v>
+        <v>7810</v>
       </c>
       <c r="B453" t="s">
-        <v>36</v>
+        <v>429</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>7830</v>
+        <v>7820</v>
       </c>
       <c r="B454" t="s">
-        <v>430</v>
+        <v>36</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>7840</v>
+        <v>7830</v>
       </c>
       <c r="B455" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>7850</v>
+        <v>7840</v>
       </c>
       <c r="B456" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>7855</v>
+        <v>7850</v>
       </c>
       <c r="B457" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>7900</v>
+        <v>7855</v>
       </c>
       <c r="B458" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>7910</v>
+        <v>7900</v>
       </c>
       <c r="B459" t="s">
-        <v>36</v>
+        <v>434</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>7920</v>
+        <v>7910</v>
       </c>
       <c r="B460" t="s">
-        <v>435</v>
+        <v>36</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>7930</v>
+        <v>7920</v>
       </c>
       <c r="B461" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>7940</v>
+        <v>7930</v>
       </c>
       <c r="B462" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>7950</v>
+        <v>7940</v>
       </c>
       <c r="B463" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>7960</v>
+        <v>7950</v>
       </c>
       <c r="B464" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>8000</v>
+        <v>7960</v>
       </c>
       <c r="B465" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>8010</v>
+        <v>8000</v>
       </c>
       <c r="B466" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>8020</v>
+        <v>8010</v>
       </c>
       <c r="B467" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>8030</v>
+        <v>8020</v>
       </c>
       <c r="B468" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>8040</v>
+        <v>8030</v>
       </c>
       <c r="B469" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>8050</v>
+        <v>8040</v>
       </c>
       <c r="B470" t="s">
-        <v>36</v>
+        <v>444</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>8060</v>
+        <v>8050</v>
       </c>
       <c r="B471" t="s">
-        <v>445</v>
+        <v>36</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>8100</v>
+        <v>8060</v>
       </c>
       <c r="B472" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>8110</v>
+        <v>8100</v>
       </c>
       <c r="B473" t="s">
-        <v>36</v>
+        <v>446</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>8120</v>
+        <v>8110</v>
       </c>
       <c r="B474" t="s">
-        <v>447</v>
+        <v>36</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>8130</v>
+        <v>8120</v>
       </c>
       <c r="B475" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>8140</v>
+        <v>8130</v>
       </c>
       <c r="B476" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>8150</v>
+        <v>8140</v>
       </c>
       <c r="B477" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>8160</v>
+        <v>8150</v>
       </c>
       <c r="B478" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>8200</v>
+        <v>8160</v>
       </c>
       <c r="B479" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>8210</v>
+        <v>8200</v>
       </c>
       <c r="B480" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>8220</v>
+        <v>8210</v>
       </c>
       <c r="B481" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>8250</v>
+        <v>8220</v>
       </c>
       <c r="B482" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>8255</v>
+        <v>8250</v>
       </c>
       <c r="B483" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>8256</v>
+        <v>8255</v>
       </c>
       <c r="B484" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>8300</v>
+        <v>8256</v>
       </c>
       <c r="B485" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>8310</v>
+        <v>8300</v>
       </c>
       <c r="B486" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>8320</v>
+        <v>8310</v>
       </c>
       <c r="B487" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>8330</v>
+        <v>8320</v>
       </c>
       <c r="B488" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>8340</v>
+        <v>8330</v>
       </c>
       <c r="B489" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>8350</v>
+        <v>8340</v>
       </c>
       <c r="B490" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>8360</v>
+        <v>8350</v>
       </c>
       <c r="B491" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>8400</v>
+        <v>8360</v>
       </c>
       <c r="B492" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>8410</v>
+        <v>8400</v>
       </c>
       <c r="B493" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>8420</v>
+        <v>8410</v>
       </c>
       <c r="B494" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>8430</v>
+        <v>8420</v>
       </c>
       <c r="B495" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>8440</v>
+        <v>8430</v>
       </c>
       <c r="B496" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>8450</v>
+        <v>8440</v>
       </c>
       <c r="B497" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>8460</v>
+        <v>8450</v>
       </c>
       <c r="B498" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>8500</v>
+        <v>8460</v>
       </c>
       <c r="B499" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500">
-        <v>8510</v>
+        <v>8500</v>
       </c>
       <c r="B500" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501">
-        <v>8520</v>
+        <v>8510</v>
       </c>
       <c r="B501" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>8530</v>
+        <v>8520</v>
       </c>
       <c r="B502" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503">
-        <v>8540</v>
+        <v>8530</v>
       </c>
       <c r="B503" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504">
-        <v>8550</v>
+        <v>8540</v>
       </c>
       <c r="B504" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505">
-        <v>8600</v>
+        <v>8550</v>
       </c>
       <c r="B505" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506">
-        <v>8610</v>
+        <v>8600</v>
       </c>
       <c r="B506" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507">
-        <v>8620</v>
+        <v>8610</v>
       </c>
       <c r="B507" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508">
-        <v>8630</v>
+        <v>8620</v>
       </c>
       <c r="B508" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509">
-        <v>8640</v>
+        <v>8630</v>
       </c>
       <c r="B509" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510">
-        <v>8650</v>
+        <v>8640</v>
       </c>
       <c r="B510" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511">
-        <v>8710</v>
+        <v>8650</v>
       </c>
       <c r="B511" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512">
-        <v>8720</v>
+        <v>8710</v>
       </c>
       <c r="B512" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513">
-        <v>8730</v>
+        <v>8720</v>
       </c>
       <c r="B513" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514">
-        <v>8740</v>
+        <v>8730</v>
       </c>
       <c r="B514" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515">
-        <v>8750</v>
+        <v>8740</v>
       </c>
       <c r="B515" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516">
-        <v>8760</v>
+        <v>8750</v>
       </c>
       <c r="B516" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517">
-        <v>8800</v>
+        <v>8760</v>
       </c>
       <c r="B517" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518">
-        <v>8810</v>
+        <v>8800</v>
       </c>
       <c r="B518" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519">
-        <v>8820</v>
+        <v>8810</v>
       </c>
       <c r="B519" t="s">
-        <v>36</v>
+        <v>491</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>8830</v>
+        <v>8820</v>
       </c>
       <c r="B520" t="s">
-        <v>492</v>
+        <v>36</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>8840</v>
+        <v>8830</v>
       </c>
       <c r="B521" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522">
-        <v>8850</v>
+        <v>8840</v>
       </c>
       <c r="B522" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523">
-        <v>8860</v>
+        <v>8850</v>
       </c>
       <c r="B523" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524">
-        <v>8900</v>
+        <v>8860</v>
       </c>
       <c r="B524" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525">
-        <v>8910</v>
+        <v>8900</v>
       </c>
       <c r="B525" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526">
-        <v>8920</v>
+        <v>8910</v>
       </c>
       <c r="B526" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527">
-        <v>8930</v>
+        <v>8920</v>
       </c>
       <c r="B527" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528">
-        <v>8940</v>
+        <v>8930</v>
       </c>
       <c r="B528" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529">
-        <v>8950</v>
+        <v>8940</v>
       </c>
       <c r="B529" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530">
-        <v>8965</v>
+        <v>8950</v>
       </c>
       <c r="B530" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531">
-        <v>9000</v>
+        <v>8965</v>
       </c>
       <c r="B531" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532">
-        <v>9030</v>
+        <v>9000</v>
       </c>
       <c r="B532" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533">
-        <v>9040</v>
+        <v>9030</v>
       </c>
       <c r="B533" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534">
-        <v>9050</v>
+        <v>9040</v>
       </c>
       <c r="B534" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535">
-        <v>9110</v>
+        <v>9050</v>
       </c>
       <c r="B535" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536">
-        <v>9120</v>
+        <v>9110</v>
       </c>
       <c r="B536" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537">
-        <v>9130</v>
+        <v>9120</v>
       </c>
       <c r="B537" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538">
-        <v>9140</v>
+        <v>9130</v>
       </c>
       <c r="B538" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539">
-        <v>9150</v>
+        <v>9140</v>
       </c>
       <c r="B539" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540">
-        <v>9200</v>
+        <v>9150</v>
       </c>
       <c r="B540" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541">
-        <v>9230</v>
+        <v>9200</v>
       </c>
       <c r="B541" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542">
-        <v>9240</v>
+        <v>9230</v>
       </c>
       <c r="B542" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543">
-        <v>9250</v>
+        <v>9240</v>
       </c>
       <c r="B543" t="s">
-        <v>36</v>
+        <v>514</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544">
-        <v>9260</v>
+        <v>9250</v>
       </c>
       <c r="B544" t="s">
-        <v>515</v>
+        <v>36</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545">
-        <v>9300</v>
+        <v>9260</v>
       </c>
       <c r="B545" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546">
-        <v>9310</v>
+        <v>9300</v>
       </c>
       <c r="B546" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547">
-        <v>9320</v>
+        <v>9310</v>
       </c>
       <c r="B547" t="s">
-        <v>36</v>
+        <v>517</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548">
-        <v>9330</v>
+        <v>9320</v>
       </c>
       <c r="B548" t="s">
-        <v>518</v>
+        <v>36</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549">
-        <v>9340</v>
+        <v>9330</v>
       </c>
       <c r="B549" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550">
-        <v>9350</v>
+        <v>9340</v>
       </c>
       <c r="B550" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551">
-        <v>9360</v>
+        <v>9350</v>
       </c>
       <c r="B551" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552">
-        <v>9410</v>
+        <v>9360</v>
       </c>
       <c r="B552" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553">
-        <v>9415</v>
+        <v>9410</v>
       </c>
       <c r="B553" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554">
-        <v>9420</v>
+        <v>9415</v>
       </c>
       <c r="B554" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555">
-        <v>9500</v>
+        <v>9420</v>
       </c>
       <c r="B555" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556">
-        <v>9510</v>
+        <v>9500</v>
       </c>
       <c r="B556" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557">
-        <v>9520</v>
+        <v>9510</v>
       </c>
       <c r="B557" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558">
-        <v>9560</v>
+        <v>9520</v>
       </c>
       <c r="B558" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559">
-        <v>9600</v>
+        <v>9560</v>
       </c>
       <c r="B559" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560">
-        <v>9610</v>
+        <v>9600</v>
       </c>
       <c r="B560" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561">
-        <v>9620</v>
+        <v>9610</v>
       </c>
       <c r="B561" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562">
-        <v>9630</v>
+        <v>9620</v>
       </c>
       <c r="B562" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563">
-        <v>9640</v>
+        <v>9630</v>
       </c>
       <c r="B563" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564">
-        <v>9650</v>
+        <v>9640</v>
       </c>
       <c r="B564" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565">
-        <v>9720</v>
+        <v>9650</v>
       </c>
       <c r="B565" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566">
-        <v>9730</v>
+        <v>9720</v>
       </c>
       <c r="B566" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567">
-        <v>9740</v>
+        <v>9730</v>
       </c>
       <c r="B567" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568">
-        <v>9750</v>
+        <v>9740</v>
       </c>
       <c r="B568" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569">
+        <v>9750</v>
+      </c>
+      <c r="B569" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570">
         <v>9840</v>
       </c>
-      <c r="B569" t="s">
+      <c r="B570" t="s">
         <v>539</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B262"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:B47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>180</v>
+      </c>
+      <c r="B4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>190</v>
+      </c>
+      <c r="B5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>270</v>
+      </c>
+      <c r="B6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>280</v>
+      </c>
+      <c r="B7" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>290</v>
+      </c>
+      <c r="B8" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>370</v>
+      </c>
+      <c r="B9" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>380</v>
+      </c>
+      <c r="B10" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>390</v>
+      </c>
+      <c r="B11" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>470</v>
+      </c>
+      <c r="B12" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>490</v>
+      </c>
+      <c r="B13" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>770</v>
+      </c>
+      <c r="B14" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1070</v>
+      </c>
+      <c r="B15" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1080</v>
+      </c>
+      <c r="B16" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1090</v>
+      </c>
+      <c r="B17" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1170</v>
+      </c>
+      <c r="B18" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1180</v>
+      </c>
+      <c r="B19" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1190</v>
+      </c>
+      <c r="B20" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1270</v>
+      </c>
+      <c r="B21" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1280</v>
+      </c>
+      <c r="B22" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1290</v>
+      </c>
+      <c r="B23" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1370</v>
+      </c>
+      <c r="B24" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1390</v>
+      </c>
+      <c r="B25" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1470</v>
+      </c>
+      <c r="B26" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1480</v>
+      </c>
+      <c r="B27" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1490</v>
+      </c>
+      <c r="B28" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1570</v>
+      </c>
+      <c r="B29" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1590</v>
+      </c>
+      <c r="B30" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1670</v>
+      </c>
+      <c r="B31" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1680</v>
+      </c>
+      <c r="B32" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1690</v>
+      </c>
+      <c r="B33" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1770</v>
+      </c>
+      <c r="B34" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1790</v>
+      </c>
+      <c r="B35" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3770</v>
+      </c>
+      <c r="B36" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3780</v>
+      </c>
+      <c r="B37" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3790</v>
+      </c>
+      <c r="B38" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3875</v>
+      </c>
+      <c r="B39" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1870</v>
+      </c>
+      <c r="B40" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1880</v>
+      </c>
+      <c r="B41" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1890</v>
+      </c>
+      <c r="B42" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1990</v>
+      </c>
+      <c r="B43" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2070</v>
+      </c>
+      <c r="B44" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2090</v>
+      </c>
+      <c r="B45" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2170</v>
+      </c>
+      <c r="B46" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2180</v>
+      </c>
+      <c r="B47" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2190</v>
+      </c>
+      <c r="B48" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2270</v>
+      </c>
+      <c r="B49" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2280</v>
+      </c>
+      <c r="B50" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2290</v>
+      </c>
+      <c r="B51" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2370</v>
+      </c>
+      <c r="B52" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2380</v>
+      </c>
+      <c r="B53" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2390</v>
+      </c>
+      <c r="B54" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2470</v>
+      </c>
+      <c r="B55" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2480</v>
+      </c>
+      <c r="B56" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2490</v>
+      </c>
+      <c r="B57" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2570</v>
+      </c>
+      <c r="B58" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2590</v>
+      </c>
+      <c r="B59" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2670</v>
+      </c>
+      <c r="B60" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2680</v>
+      </c>
+      <c r="B61" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2690</v>
+      </c>
+      <c r="B62" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2770</v>
+      </c>
+      <c r="B63" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2780</v>
+      </c>
+      <c r="B64" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2790</v>
+      </c>
+      <c r="B65" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2870</v>
+      </c>
+      <c r="B66" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2880</v>
+      </c>
+      <c r="B67" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2890</v>
+      </c>
+      <c r="B68" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2970</v>
+      </c>
+      <c r="B69" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2980</v>
+      </c>
+      <c r="B70" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2990</v>
+      </c>
+      <c r="B71" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>3070</v>
+      </c>
+      <c r="B72" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>3080</v>
+      </c>
+      <c r="B73" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>3095</v>
+      </c>
+      <c r="B74" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>3170</v>
+      </c>
+      <c r="B75" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>3180</v>
+      </c>
+      <c r="B76" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>3190</v>
+      </c>
+      <c r="B77" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>3365</v>
+      </c>
+      <c r="B78" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>3370</v>
+      </c>
+      <c r="B79" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>3380</v>
+      </c>
+      <c r="B80" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>3390</v>
+      </c>
+      <c r="B81" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>3470</v>
+      </c>
+      <c r="B82" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>3490</v>
+      </c>
+      <c r="B83" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>3570</v>
+      </c>
+      <c r="B84" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>3580</v>
+      </c>
+      <c r="B85" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>3590</v>
+      </c>
+      <c r="B86" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>3670</v>
+      </c>
+      <c r="B87" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>3680</v>
+      </c>
+      <c r="B88" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>3690</v>
+      </c>
+      <c r="B89" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>3895</v>
+      </c>
+      <c r="B90" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>3960</v>
+      </c>
+      <c r="B91" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>3970</v>
+      </c>
+      <c r="B92" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>3980</v>
+      </c>
+      <c r="B93" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>3990</v>
+      </c>
+      <c r="B94" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>4070</v>
+      </c>
+      <c r="B95" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>4080</v>
+      </c>
+      <c r="B96" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>4090</v>
+      </c>
+      <c r="B97" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>4170</v>
+      </c>
+      <c r="B98" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>4180</v>
+      </c>
+      <c r="B99" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>4195</v>
+      </c>
+      <c r="B100" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>4265</v>
+      </c>
+      <c r="B101" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>4270</v>
+      </c>
+      <c r="B102" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>4280</v>
+      </c>
+      <c r="B103" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>4290</v>
+      </c>
+      <c r="B104" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>4370</v>
+      </c>
+      <c r="B105" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>4380</v>
+      </c>
+      <c r="B106" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>4390</v>
+      </c>
+      <c r="B107" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>4470</v>
+      </c>
+      <c r="B108" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>4480</v>
+      </c>
+      <c r="B109" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>4490</v>
+      </c>
+      <c r="B110" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>4560</v>
+      </c>
+      <c r="B111" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>4570</v>
+      </c>
+      <c r="B112" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>4580</v>
+      </c>
+      <c r="B113" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>4585</v>
+      </c>
+      <c r="B114" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>4590</v>
+      </c>
+      <c r="B115" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>4670</v>
+      </c>
+      <c r="B116" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>4680</v>
+      </c>
+      <c r="B117" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>4690</v>
+      </c>
+      <c r="B118" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>4770</v>
+      </c>
+      <c r="B119" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>4780</v>
+      </c>
+      <c r="B120" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>4795</v>
+      </c>
+      <c r="B121" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>4870</v>
+      </c>
+      <c r="B122" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>4880</v>
+      </c>
+      <c r="B123" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>4890</v>
+      </c>
+      <c r="B124" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>4970</v>
+      </c>
+      <c r="B125" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>4980</v>
+      </c>
+      <c r="B126" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>4990</v>
+      </c>
+      <c r="B127" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>5070</v>
+      </c>
+      <c r="B128" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>5080</v>
+      </c>
+      <c r="B129" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>5090</v>
+      </c>
+      <c r="B130" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>5170</v>
+      </c>
+      <c r="B131" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>5180</v>
+      </c>
+      <c r="B132" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>5190</v>
+      </c>
+      <c r="B133" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>5275</v>
+      </c>
+      <c r="B134" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>5280</v>
+      </c>
+      <c r="B135" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>5295</v>
+      </c>
+      <c r="B136" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>5370</v>
+      </c>
+      <c r="B137" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>5380</v>
+      </c>
+      <c r="B138" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>5390</v>
+      </c>
+      <c r="B139" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>5470</v>
+      </c>
+      <c r="B140" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>5480</v>
+      </c>
+      <c r="B141" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>5490</v>
+      </c>
+      <c r="B142" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>5570</v>
+      </c>
+      <c r="B143" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>5580</v>
+      </c>
+      <c r="B144" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>5590</v>
+      </c>
+      <c r="B145" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>5591</v>
+      </c>
+      <c r="B146" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>5592</v>
+      </c>
+      <c r="B147" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>5670</v>
+      </c>
+      <c r="B148" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>5680</v>
+      </c>
+      <c r="B149" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>5690</v>
+      </c>
+      <c r="B150" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>5790</v>
+      </c>
+      <c r="B151" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>6070</v>
+      </c>
+      <c r="B152" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>6080</v>
+      </c>
+      <c r="B153" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>6090</v>
+      </c>
+      <c r="B154" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>6170</v>
+      </c>
+      <c r="B155" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>6180</v>
+      </c>
+      <c r="B156" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>6190</v>
+      </c>
+      <c r="B157" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>6270</v>
+      </c>
+      <c r="B158" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>6280</v>
+      </c>
+      <c r="B159" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>6290</v>
+      </c>
+      <c r="B160" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>6370</v>
+      </c>
+      <c r="B161" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>6380</v>
+      </c>
+      <c r="B162" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>6390</v>
+      </c>
+      <c r="B163" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>570</v>
+      </c>
+      <c r="B164" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>580</v>
+      </c>
+      <c r="B165" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>590</v>
+      </c>
+      <c r="B166" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>670</v>
+      </c>
+      <c r="B167" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>680</v>
+      </c>
+      <c r="B168" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>690</v>
+      </c>
+      <c r="B169" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>6470</v>
+      </c>
+      <c r="B170" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>6480</v>
+      </c>
+      <c r="B171" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>6490</v>
+      </c>
+      <c r="B172" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>6570</v>
+      </c>
+      <c r="B173" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>6590</v>
+      </c>
+      <c r="B174" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>6670</v>
+      </c>
+      <c r="B175" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>6672</v>
+      </c>
+      <c r="B176" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>6680</v>
+      </c>
+      <c r="B177" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>6690</v>
+      </c>
+      <c r="B178" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>6695</v>
+      </c>
+      <c r="B179" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>6770</v>
+      </c>
+      <c r="B180" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>6780</v>
+      </c>
+      <c r="B181" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>6870</v>
+      </c>
+      <c r="B182" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>6880</v>
+      </c>
+      <c r="B183" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>6890</v>
+      </c>
+      <c r="B184" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>6970</v>
+      </c>
+      <c r="B185" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>6990</v>
+      </c>
+      <c r="B186" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>7070</v>
+      </c>
+      <c r="B187" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>7080</v>
+      </c>
+      <c r="B188" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>7170</v>
+      </c>
+      <c r="B189" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>7180</v>
+      </c>
+      <c r="B190" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>7190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>7270</v>
+      </c>
+      <c r="B192" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>7280</v>
+      </c>
+      <c r="B193" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>7290</v>
+      </c>
+      <c r="B194" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>7370</v>
+      </c>
+      <c r="B195" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>7380</v>
+      </c>
+      <c r="B196" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>7390</v>
+      </c>
+      <c r="B197" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>7460</v>
+      </c>
+      <c r="B198" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>7470</v>
+      </c>
+      <c r="B199" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>7480</v>
+      </c>
+      <c r="B200" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>7490</v>
+      </c>
+      <c r="B201" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>7570</v>
+      </c>
+      <c r="B202" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>7580</v>
+      </c>
+      <c r="B203" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>7590</v>
+      </c>
+      <c r="B204" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>7670</v>
+      </c>
+      <c r="B205" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>7680</v>
+      </c>
+      <c r="B206" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>7690</v>
+      </c>
+      <c r="B207" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>7770</v>
+      </c>
+      <c r="B208" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>7780</v>
+      </c>
+      <c r="B209" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>7790</v>
+      </c>
+      <c r="B210" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>7860</v>
+      </c>
+      <c r="B211" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>7870</v>
+      </c>
+      <c r="B212" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>7880</v>
+      </c>
+      <c r="B213" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>7890</v>
+      </c>
+      <c r="B214" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>7970</v>
+      </c>
+      <c r="B215" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>7980</v>
+      </c>
+      <c r="B216" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>7990</v>
+      </c>
+      <c r="B217" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>8070</v>
+      </c>
+      <c r="B218" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>8080</v>
+      </c>
+      <c r="B219" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>8090</v>
+      </c>
+      <c r="B220" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>8170</v>
+      </c>
+      <c r="B221" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>8180</v>
+      </c>
+      <c r="B222" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>8190</v>
+      </c>
+      <c r="B223" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>8270</v>
+      </c>
+      <c r="B224" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>8290</v>
+      </c>
+      <c r="B225" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>8370</v>
+      </c>
+      <c r="B226" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>8380</v>
+      </c>
+      <c r="B227" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>8390</v>
+      </c>
+      <c r="B228" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>8470</v>
+      </c>
+      <c r="B229" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>8560</v>
+      </c>
+      <c r="B230" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>8570</v>
+      </c>
+      <c r="B231" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>8580</v>
+      </c>
+      <c r="B232" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>8590</v>
+      </c>
+      <c r="B233" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>8660</v>
+      </c>
+      <c r="B234" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>8670</v>
+      </c>
+      <c r="B235" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>8680</v>
+      </c>
+      <c r="B236" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>8690</v>
+      </c>
+      <c r="B237" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>8770</v>
+      </c>
+      <c r="B238" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>8780</v>
+      </c>
+      <c r="B239" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>8790</v>
+      </c>
+      <c r="B240" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>8870</v>
+      </c>
+      <c r="B241" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>8880</v>
+      </c>
+      <c r="B242" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>8970</v>
+      </c>
+      <c r="B243" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>8980</v>
+      </c>
+      <c r="B244" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>8990</v>
+      </c>
+      <c r="B245" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>9070</v>
+      </c>
+      <c r="B246" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>9080</v>
+      </c>
+      <c r="B247" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>9090</v>
+      </c>
+      <c r="B248" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>9160</v>
+      </c>
+      <c r="B249" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>9170</v>
+      </c>
+      <c r="B250" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>9180</v>
+      </c>
+      <c r="B251" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>9190</v>
+      </c>
+      <c r="B252" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>9290</v>
+      </c>
+      <c r="B253" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>9370</v>
+      </c>
+      <c r="B254" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>9380</v>
+      </c>
+      <c r="B255" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>9390</v>
+      </c>
+      <c r="B256" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>9470</v>
+      </c>
+      <c r="B257" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>9480</v>
+      </c>
+      <c r="B258" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>9490</v>
+      </c>
+      <c r="B259" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>9570</v>
+      </c>
+      <c r="B260" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>9590</v>
+      </c>
+      <c r="B261" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>9890</v>
+      </c>
+      <c r="B262" t="s">
+        <v>800</v>
       </c>
     </row>
   </sheetData>
